--- a/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11700"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="t_ui" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,47 +84,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,28 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -176,16 +183,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,36 +223,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,23 +449,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +479,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,16 +520,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,127 +552,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>

--- a/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>WinName</t>
   </si>
@@ -23,24 +23,36 @@
     <t>ResPath</t>
   </si>
   <si>
+    <t>TestSpace1</t>
+  </si>
+  <si>
     <t>IsFullScreen</t>
   </si>
   <si>
     <t>Layer</t>
   </si>
   <si>
+    <t>TestSpace2</t>
+  </si>
+  <si>
     <t>窗口名</t>
   </si>
   <si>
     <t>资源路径</t>
   </si>
   <si>
+    <t>测试空格 描述支持1</t>
+  </si>
+  <si>
     <t>是否全屏</t>
   </si>
   <si>
     <t>UI层级Layer</t>
   </si>
   <si>
+    <t>测试空格 描述支持2</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -56,10 +68,16 @@
     <t>Assets/Res/UI/MainUI.prefab</t>
   </si>
   <si>
+    <t>描述不带空格</t>
+  </si>
+  <si>
     <t>LoadingScreen</t>
   </si>
   <si>
     <t>Assets/Res/UI/LoadingScreen.prefab</t>
+  </si>
+  <si>
+    <t>描述带 空格</t>
   </si>
   <si>
     <t>测试黑名单</t>
@@ -70,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,66 +99,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,17 +111,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,8 +179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -184,45 +195,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +255,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,7 +315,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,163 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +446,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,20 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,8 +515,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,7 +549,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,130 +567,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,20 +1083,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.6285714285714" style="2" customWidth="1"/>
-    <col min="2" max="3" width="22.8761904761905" customWidth="1"/>
-    <col min="4" max="4" width="14.8761904761905" customWidth="1"/>
+    <col min="2" max="2" width="22.8761904761905" customWidth="1"/>
+    <col min="4" max="4" width="22.8761904761905" customWidth="1"/>
+    <col min="5" max="5" width="14.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,64 +1110,94 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1"/>
     <row r="5" s="2" customFormat="1"/>
     <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="4" customFormat="1" spans="1:4">
+    <row r="7" s="4" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="b">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:4">
+    <row r="8" s="4" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="b">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1220,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>WinName</t>
   </si>
@@ -35,6 +35,12 @@
     <t>TestSpace2</t>
   </si>
   <si>
+    <t>TestByte</t>
+  </si>
+  <si>
+    <t>TestByteArray</t>
+  </si>
+  <si>
     <t>窗口名</t>
   </si>
   <si>
@@ -53,6 +59,12 @@
     <t>测试空格 描述支持2</t>
   </si>
   <si>
+    <t>测试Byte数据类型</t>
+  </si>
+  <si>
+    <t>测试Byte数组</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -62,6 +74,15 @@
     <t>int</t>
   </si>
   <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>byte[]</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>MainUI</t>
   </si>
   <si>
@@ -71,6 +92,9 @@
     <t>描述不带空格</t>
   </si>
   <si>
+    <t>1+2+3</t>
+  </si>
+  <si>
     <t>LoadingScreen</t>
   </si>
   <si>
@@ -78,6 +102,9 @@
   </si>
   <si>
     <t>描述带 空格</t>
+  </si>
+  <si>
+    <t>4+5+6+7</t>
   </si>
   <si>
     <t>测试黑名单</t>
@@ -88,9 +115,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -102,6 +129,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -111,107 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,28 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,11 +476,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,39 +565,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -549,7 +576,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,130 +594,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,13 +1110,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.6285714285714" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.8761904761905" customWidth="1"/>
@@ -1097,7 +1124,7 @@
     <col min="5" max="5" width="14.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,59 +1143,81 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+    <row r="3" s="2" customFormat="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1"/>
+    <row r="4" s="3" customFormat="1" spans="8:8">
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="5" s="2" customFormat="1"/>
     <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="4" customFormat="1" spans="1:6">
+    <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1177,18 +1226,24 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:6">
+    <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1197,7 +1252,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>WinName</t>
   </si>
@@ -41,6 +41,12 @@
     <t>TestByteArray</t>
   </si>
   <si>
+    <t>TestIntTwoArray</t>
+  </si>
+  <si>
+    <t>TestStringTwoArray</t>
+  </si>
+  <si>
     <t>窗口名</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
     <t>测试Byte数组</t>
   </si>
   <si>
+    <t>测试整形二维数组</t>
+  </si>
+  <si>
+    <t>测试字符串二维数组</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -80,7 +92,10 @@
     <t>byte[]</t>
   </si>
   <si>
-    <t>+</t>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>string[][]</t>
   </si>
   <si>
     <t>MainUI</t>
@@ -95,6 +110,12 @@
     <t>1+2+3</t>
   </si>
   <si>
+    <t>1+2|3+4+5|6</t>
+  </si>
+  <si>
+    <t>a|b+c+d+e|f+g</t>
+  </si>
+  <si>
     <t>LoadingScreen</t>
   </si>
   <si>
@@ -105,6 +126,12 @@
   </si>
   <si>
     <t>4+5+6+7</t>
+  </si>
+  <si>
+    <t>1|2+3+4+5|6+7</t>
+  </si>
+  <si>
+    <t>a+b|c+d+e|f</t>
   </si>
   <si>
     <t>测试黑名单</t>
@@ -115,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,6 +156,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -136,79 +202,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,8 +218,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -243,6 +277,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,23 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,26 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -535,15 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +559,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,10 +591,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,130 +621,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,13 +1137,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.6285714285714" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.8761904761905" customWidth="1"/>
@@ -1124,7 +1151,7 @@
     <col min="5" max="5" width="14.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,75 +1176,89 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="8:8">
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="4" s="3" customFormat="1"/>
     <row r="5" s="2" customFormat="1"/>
     <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="4" customFormat="1" spans="1:8">
+    <row r="7" s="4" customFormat="1" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1226,24 +1267,30 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:8">
+    <row r="8" s="4" customFormat="1" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1252,13 +1299,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4">
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
@@ -107,13 +107,13 @@
     <t>描述不带空格</t>
   </si>
   <si>
-    <t>1+2+3</t>
-  </si>
-  <si>
-    <t>1+2|3+4+5|6</t>
-  </si>
-  <si>
-    <t>a|b+c+d+e|f+g</t>
+    <t>1#2#3</t>
+  </si>
+  <si>
+    <t>1#2|3#4#5|6</t>
+  </si>
+  <si>
+    <t>a|b#c#d#e|f#g</t>
   </si>
   <si>
     <t>LoadingScreen</t>
@@ -125,13 +125,13 @@
     <t>描述带 空格</t>
   </si>
   <si>
-    <t>4+5+6+7</t>
-  </si>
-  <si>
-    <t>1|2+3+4+5|6+7</t>
-  </si>
-  <si>
-    <t>a+b|c+d+e|f</t>
+    <t>4#5#6#7</t>
+  </si>
+  <si>
+    <t>1|2#3#4#5|6#7</t>
+  </si>
+  <si>
+    <t>a#b|c#d#e|f</t>
   </si>
   <si>
     <t>测试黑名单</t>
@@ -156,16 +156,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,60 +249,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -241,60 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +309,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,163 +435,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,11 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +533,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -542,26 +566,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,171 +600,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>

--- a/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/ui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="t_ui" sheetId="1" r:id="rId1"/>
@@ -142,69 +142,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -212,23 +242,15 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -236,66 +258,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -309,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +500,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,17 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +551,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,67 +600,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,97 +657,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -764,55 +764,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1140,15 +1140,21 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.6285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.8761904761905" customWidth="1"/>
-    <col min="4" max="4" width="22.8761904761905" customWidth="1"/>
-    <col min="5" max="5" width="14.8761904761905" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -1330,7 +1336,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
